--- a/output/3_Regression/c08/c08table_mape.xlsx
+++ b/output/3_Regression/c08/c08table_mape.xlsx
@@ -441,7 +441,7 @@
         <v>1.221739774262221</v>
       </c>
       <c r="G2">
-        <v>2.533776720060586</v>
+        <v>2.533776720060583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>1.056102465928499</v>
       </c>
       <c r="G3">
-        <v>2.042965716587403</v>
+        <v>2.0429657165874</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>0.9313563762418292</v>
       </c>
       <c r="G4">
-        <v>1.881474483227084</v>
+        <v>1.881474483227082</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>0.805215709674028</v>
       </c>
       <c r="G5">
-        <v>1.77689203078667</v>
+        <v>1.776892030786669</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>0.7554085010823971</v>
       </c>
       <c r="G6">
-        <v>1.691429237903288</v>
+        <v>1.691429237903287</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>0.6759493618064515</v>
       </c>
       <c r="G7">
-        <v>1.622277400676402</v>
+        <v>1.622277400676401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.48996454547378</v>
       </c>
       <c r="G9">
-        <v>1.523572433641793</v>
+        <v>1.523572433641792</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -648,7 +648,7 @@
         <v>0.3512573414794727</v>
       </c>
       <c r="G11">
-        <v>1.452851425525265</v>
+        <v>1.452851425525264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>0.3103115790166551</v>
       </c>
       <c r="G12">
-        <v>1.425965281057662</v>
+        <v>1.425965281057661</v>
       </c>
     </row>
     <row r="13" spans="1:7">
